--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_ghost_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_ghost_1_1.xlsx
@@ -3104,7 +3104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]하지만 이프리트가 초대하고 사일런스 씨께서 개최한 행사니까 위험인물 같은 건 분명 없을 거야.
+    <t xml:space="preserve">[name="스즈란"]하지만 이프리트 씨가 초대하고 사일런스 씨께서 개최한 행사니까 위험인물 같은 건 분명 없을 거야.
 </t>
   </si>
   <si>
@@ -3220,7 +3220,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="메테오라이트"]내가 스펙터의 존재를 아는 건…… 같이 임무에 나섰다가 전투를 한 적이 있기 때문이야.
+    <t xml:space="preserve">[name="메테오라이트"]내가 스펙터의 존재를 아는 건…… 임무를 수행하면서 함께 전투를 한 적이 있기 때문이야.
 </t>
   </si>
   <si>
@@ -3260,7 +3260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]스펙터 씨는……. 과묵하신 편인가요?
+    <t xml:space="preserve">[name="스즈란"]스펙터 씨는…… 과묵하신 편인가요?
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]응응……. 으응? 스펙터라고?
+    <t xml:space="preserve">[name="폴리닉"]응응…… 으응? 스펙터라고?
 </t>
   </si>
   <si>
@@ -3388,7 +3388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]아……. 역시, 폴리닉 언니는 스펙터 씨를 알고 계시는군요.
+    <t xml:space="preserve">[name="스즈란"]아…… 역시, 폴리닉 언니는 스펙터 씨를 알고 계시는군요.
 </t>
   </si>
   <si>
@@ -3432,7 +3432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]내 추측으로는 아마도 스펙터를 만나러 오는 사람이라면 그 사람이 유일……. 앗, 아냐. 아무것도 아니야.
+    <t xml:space="preserve">[name="폴리닉"]내 추측으로는 아마도 스펙터를 만나러 오는 사람이라면 그 사람이 유일…… 앗, 아냐. 아무것도 아니야.
 </t>
   </si>
   <si>
